--- a/Data Dictionary Arrest and Crime Data.xlsx
+++ b/Data Dictionary Arrest and Crime Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lalla\Downloads\Hack4LA\Hack4LA City of Los Angeles Arrests project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lalla\Downloads\Hack4LA\Github Repo Hack4LA Project\LA-Crime-and-Arrest-Data-Science-Project-Hack4LA-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{508FF295-DE9D-4C56-B5B7-0F85B094F829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34754FC6-D9C4-4ACB-AA34-5F8A38329ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="23226" windowHeight="13866" xr2:uid="{6F40E781-76FE-4DE2-AC8E-C59253A5F9AA}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="23226" windowHeight="13866" activeTab="1" xr2:uid="{6F40E781-76FE-4DE2-AC8E-C59253A5F9AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Arrest Data" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="90">
   <si>
     <t>Data type</t>
   </si>
@@ -130,6 +130,185 @@
   </si>
   <si>
     <t>Number and Text</t>
+  </si>
+  <si>
+    <t>DR Number</t>
+  </si>
+  <si>
+    <t>Date Reported</t>
+  </si>
+  <si>
+    <t>Date Occurred</t>
+  </si>
+  <si>
+    <t>Time Occurred</t>
+  </si>
+  <si>
+    <t>Crime Code</t>
+  </si>
+  <si>
+    <t>Crime Code Description</t>
+  </si>
+  <si>
+    <t>MO Codes</t>
+  </si>
+  <si>
+    <t>Victim Age</t>
+  </si>
+  <si>
+    <t>Victim Sex</t>
+  </si>
+  <si>
+    <t>Victim Descent</t>
+  </si>
+  <si>
+    <t>Premise Code</t>
+  </si>
+  <si>
+    <t>Premise Description</t>
+  </si>
+  <si>
+    <t>Weapon Used Code</t>
+  </si>
+  <si>
+    <t>Weapon Description</t>
+  </si>
+  <si>
+    <t>Status Code</t>
+  </si>
+  <si>
+    <t>Status Description</t>
+  </si>
+  <si>
+    <t>Crime Code 1</t>
+  </si>
+  <si>
+    <t>Crime Code 2</t>
+  </si>
+  <si>
+    <t>Crime Code 3</t>
+  </si>
+  <si>
+    <t>Crime Code 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Location </t>
+  </si>
+  <si>
+    <t>Number and Text - Mainly Text</t>
+  </si>
+  <si>
+    <t>Division of Records Number: Official file number made up of a 2 digit year, area ID, and 5 digits</t>
+  </si>
+  <si>
+    <t>The 21 Geographic Areas or Patrol Divisions are also given a name designation that references a landmark or the surrounding community that it is responsible for. For example 77th Street Division is located at the intersection of South Broadway and 77th Street, serving neighborhoods in South Los Angeles.</t>
+  </si>
+  <si>
+    <t>Number and Text (Date and Time)</t>
+  </si>
+  <si>
+    <t>MM/DD/YYYY</t>
+  </si>
+  <si>
+    <t>In 24 hour military time.</t>
+  </si>
+  <si>
+    <t>Number and Text(Date and Time)</t>
+  </si>
+  <si>
+    <t>The LAPD has 21 Community Police Stations referred to as Geographic Areas within the department. These Geographic Areas are sequentially numbered from 1-21.</t>
+  </si>
+  <si>
+    <t>A four-digit code that represents a sub-area within a Geographic Area. All crime records reference the "RD" that it occurred in for statistical comparisons. Find LAPD Reporting Districts on the LA City GeoHub at http://geohub.lacity.org/datasets/c4f83909b81d4786aa8ba8a74a4b4db1_4</t>
+  </si>
+  <si>
+    <t>Indicates the crime committed. (Same as Crime Code 1)</t>
+  </si>
+  <si>
+    <t>Defines the Crime Code provided.</t>
+  </si>
+  <si>
+    <t>Modus Operandi: Activities associated with the suspect in commission of the crime.See attached PDF for list of MO Codes in numerical order. https://data.lacity.org/api/views/y8tr-7khq/files/3a967fbd-f210-4857-bc52-60230efe256c?download=true&amp;filename=MO%20CODES%20(numerical%20order).pdf</t>
+  </si>
+  <si>
+    <t>F - Female M - Male X - Unknown (Victims Sex)</t>
+  </si>
+  <si>
+    <t>Two character numeric (Victim Age)</t>
+  </si>
+  <si>
+    <t>Descent Code: A - Other Asian B - Black C - Chinese D - Cambodian F - Filipino G - Guamanian H - Hispanic/Latin/Mexican I - American Indian/Alaskan Native J - Japanese K - Korean L - Laotian O - Other P - Pacific Islander S - Samoan U - Hawaiian V - Vietnamese W - White X - Unknown Z - Asian Indian</t>
+  </si>
+  <si>
+    <t>The type of structure, vehicle, or location where the crime took place.</t>
+  </si>
+  <si>
+    <t>Defines the Premise Code provided.</t>
+  </si>
+  <si>
+    <t>The type of weapon used in the crime.</t>
+  </si>
+  <si>
+    <t>Defines the Weapon Used Code provided.</t>
+  </si>
+  <si>
+    <t>Status of the case. (IC is the default)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	
+Defines the Status Code provided.</t>
+  </si>
+  <si>
+    <t>Indicates the crime committed. Crime Code 1 is the primary and most serious one. Crime Code 2, 3, and 4 are respectively less serious offenses. Lower crime class numbers are more serious.</t>
+  </si>
+  <si>
+    <t>May contain a code for an additional crime, less serious than Crime Code 1.</t>
+  </si>
+  <si>
+    <t>Street address of crime incident rounded to the nearest hundred block to maintain anonymity.</t>
+  </si>
+  <si>
+    <t>Cross Street of rounded Address</t>
+  </si>
+  <si>
+    <t>Latitude and Longtitude of location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	
+In 24 hour military time.</t>
+  </si>
+  <si>
+    <t>A four-digit code that represents a sub-area within a Geographic Area. All arrest records reference the "RD" that it occurred in for statistical comparisons. Find LAPD Reporting Districts on the LA City GeoHub at http://geohub.lacity.org/datasets/lapd-reporting-districts?geometry=-121.023%2C33.621%2C-115.797%2C34.418</t>
+  </si>
+  <si>
+    <t>Two character numeric. Age of criminal</t>
+  </si>
+  <si>
+    <t>F - Femlae M - Male</t>
+  </si>
+  <si>
+    <t>Category of arrest charge.</t>
+  </si>
+  <si>
+    <t>Defines the Charge Group Code provided.</t>
+  </si>
+  <si>
+    <t>A code to indicate the type of charge the individual was arrested for. D - Dependent F - Felony I - Infraction M - Misdemeanor O - Other</t>
+  </si>
+  <si>
+    <t>Defines the Charge provided.</t>
+  </si>
+  <si>
+    <t>The charge the individual was arrested for.</t>
+  </si>
+  <si>
+    <t>Disposition of Arrest.</t>
+  </si>
+  <si>
+    <t>The location where the crime incident occurred. Actual address is omitted for confidentiality. XY coordinates reflect the nearest 100 block.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zip codes </t>
   </si>
 </sst>
 </file>
@@ -165,8 +344,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -194,6 +376,19 @@
     <tableColumn id="4" xr3:uid="{5E83506D-0161-4E50-BFFA-37D7F52AFF3A}" name="Description"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4F92F39D-02A8-4816-9672-2BFE0713950C}" name="Table2" displayName="Table2" ref="A1:D27" totalsRowShown="0">
+  <autoFilter ref="A1:D27" xr:uid="{4F92F39D-02A8-4816-9672-2BFE0713950C}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{CE08DB16-8C63-41BB-B86A-FBDFB5484958}" name="Columns"/>
+    <tableColumn id="2" xr3:uid="{35809A4F-2031-4FBD-A5AE-73920EBABC0C}" name="Data type"/>
+    <tableColumn id="3" xr3:uid="{E1CC30CD-1BB6-499D-9ADE-EA159AD29097}" name="Field Size"/>
+    <tableColumn id="4" xr3:uid="{B1E0EA43-3799-4330-854D-D4FF981E20D7}" name="Description"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -516,8 +711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2E1D246-ABE6-4EF3-BC82-26DFF49EEEC4}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -570,8 +765,11 @@
       <c r="C3">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="D3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.7" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -580,6 +778,9 @@
       </c>
       <c r="C4">
         <v>4</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.5">
@@ -592,6 +793,9 @@
       <c r="C5">
         <v>2</v>
       </c>
+      <c r="D5" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
@@ -603,6 +807,9 @@
       <c r="C6">
         <v>1</v>
       </c>
+      <c r="D6" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
@@ -614,6 +821,9 @@
       <c r="C7">
         <v>4</v>
       </c>
+      <c r="D7" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
@@ -625,6 +835,9 @@
       <c r="C8">
         <v>2</v>
       </c>
+      <c r="D8" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
@@ -636,6 +849,9 @@
       <c r="C9">
         <v>1</v>
       </c>
+      <c r="D9" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
@@ -647,6 +863,9 @@
       <c r="C10">
         <v>1</v>
       </c>
+      <c r="D10" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
@@ -658,6 +877,9 @@
       <c r="C11">
         <v>2</v>
       </c>
+      <c r="D11" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
@@ -669,6 +891,9 @@
       <c r="C12">
         <v>30</v>
       </c>
+      <c r="D12" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
@@ -680,6 +905,9 @@
       <c r="C13">
         <v>1</v>
       </c>
+      <c r="D13" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
@@ -691,6 +919,9 @@
       <c r="C14">
         <v>11</v>
       </c>
+      <c r="D14" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
@@ -702,6 +933,9 @@
       <c r="C15">
         <v>41</v>
       </c>
+      <c r="D15" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
@@ -713,8 +947,11 @@
       <c r="C16">
         <v>40</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="D16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -724,8 +961,11 @@
       <c r="C17">
         <v>34</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="D17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -735,8 +975,11 @@
       <c r="C18">
         <v>121</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="D18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -746,8 +989,11 @@
       <c r="C19">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="D19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -758,7 +1004,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -769,7 +1015,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -780,7 +1026,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -791,7 +1037,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -812,18 +1058,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{072A533C-AA56-4E83-AFD8-48B434D86EE2}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="33" customWidth="1"/>
-    <col min="2" max="2" width="30.234375" customWidth="1"/>
+    <col min="2" max="2" width="34.29296875" customWidth="1"/>
     <col min="3" max="3" width="26.64453125" customWidth="1"/>
-    <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="4" max="4" width="88.87890625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="51.7" customHeight="1" x14ac:dyDescent="0.5">
@@ -840,7 +1086,374 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="28.7" x14ac:dyDescent="0.5">
+      <c r="A20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20">
+        <v>12</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A24" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25">
+        <v>39</v>
+      </c>
+      <c r="D25" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A26" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26">
+        <v>31</v>
+      </c>
+      <c r="D26" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A27" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27">
+        <v>139</v>
+      </c>
+      <c r="D27" t="s">
+        <v>77</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>